--- a/medicine/Psychotrope/Pastis/Pastis.xlsx
+++ b/medicine/Psychotrope/Pastis/Pastis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le pastis Écouter (mélange, en provençal[1]) est une boisson spiritueuse aromatisée à l'anis et à la réglisse à laquelle diverses recettes ajoutent diverses plantes aromatiques, notamment du fenouil. 
-Cette aromatisation peut être obtenue par différents procédés comme la macération et la distillation[2].
+Le pastis Écouter (mélange, en provençal) est une boisson spiritueuse aromatisée à l'anis et à la réglisse à laquelle diverses recettes ajoutent diverses plantes aromatiques, notamment du fenouil. 
+Cette aromatisation peut être obtenue par différents procédés comme la macération et la distillation.
 Variante de l'absinthe, il s'agit d'un apéritif traditionnel de la cuisine provençale et de la cuisine française.
 </t>
         </is>
@@ -516,25 +528,21 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Union européenne
-Conformément au règlement (UE) 2019/787 du Parlement européen et du Conseil du 17 avril 2019, il existe 44 catégories commerciales de boissons spiritueuses[3].
+          <t>Union européenne</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Conformément au règlement (UE) 2019/787 du Parlement européen et du Conseil du 17 avril 2019, il existe 44 catégories commerciales de boissons spiritueuses.
 Boisson spiritueuse anisée
-Une boisson spiritueuse anisée est une boisson spiritueuse produite par aromatisation d'un alcool éthylique d'origine agricole avec des extraits naturels d'anis étoilé (Illicium verum), d'anis vert (Pimpinella anisum), de fenouil (Foeniculum vulgare) ou de toute autre plante qui contient le même constituant aromatique principal, par l'un des procédés suivants ou une combinaison de ceux-ci[4] :
+Une boisson spiritueuse anisée est une boisson spiritueuse produite par aromatisation d'un alcool éthylique d'origine agricole avec des extraits naturels d'anis étoilé (Illicium verum), d'anis vert (Pimpinella anisum), de fenouil (Foeniculum vulgare) ou de toute autre plante qui contient le même constituant aromatique principal, par l'un des procédés suivants ou une combinaison de ceux-ci :
 macération ou distillation ou les deux ;
 distillation de l'alcool en présence des graines ou autres parties des plantes ci-dessus désignées ;
 adjonction d'extraits naturels distillés de plantes anisées.
-Le titre alcoométrique volumique minimal d'une boisson spiritueuse anisée est de 15 %[4].
-Une boisson spiritueuse anisée ne peut être aromatisée qu'avec des préparations aromatisantes et des substances aromatisantes naturelles[4].
-D'autres extraits végétaux naturels ou graines aromatiques peuvent être utilisés en complément, mais le goût de l'anis doit rester prépondérant[4].
-Pastis
-Le pastis est une boisson spiritueuse anisée qui contient également des extraits naturels issus du bois de réglisse (Glycyrrhiza spp.), ce qui implique la présence de substances colorantes dites « chalcones », ainsi que celle d'acide glycyrrhizique, dont les teneurs minimale et maximale doivent être respectivement de 0,05 et de 0,5 gramme par litre[5].
-Le titre alcoométrique volumique minimal du pastis est de 40 %[5].
-Le pastis ne peut être aromatisé qu'avec des préparations aromatisantes et des substances aromatisantes naturelles[5].
-Le pastis présente une teneur en produits édulcorants, exprimée en sucre inverti, inférieure à 100 grammes par litre et des teneurs minimale et maximale en anéthol de respectivement 1,5 et 2 grammes par litre[5].
-Pastis de Marseille
-Le pastis de Marseille est un pastis au goût d'anis prononcé dont la teneur en anéthol se situe entre 1,9 et 2,1 grammes par litre[6].
-Le titre alcoométrique volumique minimal du pastis de Marseille est de 45 %[6].
-Le pastis de Marseille ne peut être aromatisé qu'avec des préparations aromatisantes et des substances aromatisantes naturelles[6].
+Le titre alcoométrique volumique minimal d'une boisson spiritueuse anisée est de 15 %.
+Une boisson spiritueuse anisée ne peut être aromatisée qu'avec des préparations aromatisantes et des substances aromatisantes naturelles.
+D'autres extraits végétaux naturels ou graines aromatiques peuvent être utilisés en complément, mais le goût de l'anis doit rester prépondérant.
 </t>
         </is>
       </c>
@@ -560,17 +568,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Histoire</t>
+          <t>Définitions commerciales</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le 16 mars 1915 (durant la première Guerre mondiale) l'absinthe et des boissons similaires sont interdites en France[7]. En réaction, le fils d'un ancien industriel de l'absinthe, Jules-Félix Pernod dépose la marque Anis Pernod en 1918 (variante autorisée de l'absinthe). C'est donc le véritable inventeur du pastis[8] commercialisé à partir de son usine du quartier de Montfavet à Avignon.
-Toutefois, très floue, la loi laisse des doutes et la production des boissons à base d'anis chute, personne ne sait si cet alcool est légal[9]. En 1920, l'État autorise à nouveau la production et rétablit l'autorisation des consommations anisées dont le degré d'alcool est inférieur à 30°. Puis, en 1922, le degré est relevé à 40°. Une véritable frénésie s'empare alors de la Provence où tous les bars vendent du pastis. Chaque marque personnalise ses recettes en ajoutant à l'anis d'autres plantes aromatiques telles que le fenouil, l'anis vert, la réglisse, etc.
-Paul Ricard fait preuve d'innovation en élaborant une recette incluant de l'anis étoilé, de l'anis vert et de la réglisse. Son slogan, « Ricard, le vrai pastis de Marseille », apparaît en 1932. C'est la première fois que le mot pastis apparaît sur l'étiquette d'un apéritif anisé. Un très large réseau de distribution permet à ses ventes de décoller et il devient le premier vendeur de pastis au détriment de Pernod[10].
-En 1938, on autorise la production et la vente de pastis et boissons anisées titrant 45°.
-Sous le régime de Vichy le pastis est interdit en août 1940 comme toutes les boissons au-dessus de 16° : l'usine Pernod est transformée en chocolaterie, Ricard produit du vermouth, des jus de fruits, des alcools carburants pour le maquis. À la Libération, la déception est d’autant plus grande que le nouveau gouvernement (principalement la ministre de la Santé Germaine Poinso-Chapuis, surnommée « chapeau pointu » par Paul Ricard) ne révoque que partiellement les dispositions de Vichy en n’autorisant que les apéritifs à 40° : une quarantaine de distillateurs clandestins produisent leur pastis. Une taxe est alors prélevée par leur syndicat pour financer d'éventuels procès. L'État soucieux de trouver de nouvelles recettes fiscales abroge la prohibition en 1949. En 1951, une loi interdit la publicité des produits anisés par affiche et par presse, Pernod relance sa boisson sous l'appellation de « Pastis 51 »[11] et envoie alors ses commerciaux[12] (appelés « structure de propagande » à l'époque) qui contournent cette interdiction en développant des produits dérivés (pot à eau, cendrier, bob)[10].
-</t>
+          <t>Union européenne</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Pastis</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le pastis est une boisson spiritueuse anisée qui contient également des extraits naturels issus du bois de réglisse (Glycyrrhiza spp.), ce qui implique la présence de substances colorantes dites « chalcones », ainsi que celle d'acide glycyrrhizique, dont les teneurs minimale et maximale doivent être respectivement de 0,05 et de 0,5 gramme par litre.
+Le titre alcoométrique volumique minimal du pastis est de 40 %.
+Le pastis ne peut être aromatisé qu'avec des préparations aromatisantes et des substances aromatisantes naturelles.
+Le pastis présente une teneur en produits édulcorants, exprimée en sucre inverti, inférieure à 100 grammes par litre et des teneurs minimale et maximale en anéthol de respectivement 1,5 et 2 grammes par litre.</t>
         </is>
       </c>
     </row>
@@ -595,13 +611,24 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Consommation</t>
+          <t>Définitions commerciales</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il se boit traditionnellement en apéritif, à compléter soi-même avec de l'eau fraîche et des glaçons selon son goût (généralement de cinq à sept volumes d'eau pour un volume de pastis). En France, la dose usuelle dans les cafés et brasseries est de 2 cl de pastis. Lorsque l'on fait le mélange en versant l'eau, on passe alors d'une couleur ambrée assez transparente à un jaune trouble un peu laiteux. Ce trouble est dû à une microémulsion de l'anéthol peu soluble dans l'eau  par l'effet Ouzo ; si l'on attend quelques heures, le trouble disparaît. Ce phénomène, désigné sous le terme de « louchissement » (on dit que le pastis « louchit »), apparaît aussi lors de la réfrigération du pastis pur (on dit alors que le pastis « paillette »)[13].
-En 2005, la consommation annuelle de boissons anisées en France est d'environ 135 millions de litres[14].
+          <t>Union européenne</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Pastis de Marseille</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le pastis de Marseille est un pastis au goût d'anis prononcé dont la teneur en anéthol se situe entre 1,9 et 2,1 grammes par litre.
+Le titre alcoométrique volumique minimal du pastis de Marseille est de 45 %.
+Le pastis de Marseille ne peut être aromatisé qu'avec des préparations aromatisantes et des substances aromatisantes naturelles.
 </t>
         </is>
       </c>
@@ -627,45 +654,120 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 16 mars 1915 (durant la première Guerre mondiale) l'absinthe et des boissons similaires sont interdites en France. En réaction, le fils d'un ancien industriel de l'absinthe, Jules-Félix Pernod dépose la marque Anis Pernod en 1918 (variante autorisée de l'absinthe). C'est donc le véritable inventeur du pastis commercialisé à partir de son usine du quartier de Montfavet à Avignon.
+Toutefois, très floue, la loi laisse des doutes et la production des boissons à base d'anis chute, personne ne sait si cet alcool est légal. En 1920, l'État autorise à nouveau la production et rétablit l'autorisation des consommations anisées dont le degré d'alcool est inférieur à 30°. Puis, en 1922, le degré est relevé à 40°. Une véritable frénésie s'empare alors de la Provence où tous les bars vendent du pastis. Chaque marque personnalise ses recettes en ajoutant à l'anis d'autres plantes aromatiques telles que le fenouil, l'anis vert, la réglisse, etc.
+Paul Ricard fait preuve d'innovation en élaborant une recette incluant de l'anis étoilé, de l'anis vert et de la réglisse. Son slogan, « Ricard, le vrai pastis de Marseille », apparaît en 1932. C'est la première fois que le mot pastis apparaît sur l'étiquette d'un apéritif anisé. Un très large réseau de distribution permet à ses ventes de décoller et il devient le premier vendeur de pastis au détriment de Pernod.
+En 1938, on autorise la production et la vente de pastis et boissons anisées titrant 45°.
+Sous le régime de Vichy le pastis est interdit en août 1940 comme toutes les boissons au-dessus de 16° : l'usine Pernod est transformée en chocolaterie, Ricard produit du vermouth, des jus de fruits, des alcools carburants pour le maquis. À la Libération, la déception est d’autant plus grande que le nouveau gouvernement (principalement la ministre de la Santé Germaine Poinso-Chapuis, surnommée « chapeau pointu » par Paul Ricard) ne révoque que partiellement les dispositions de Vichy en n’autorisant que les apéritifs à 40° : une quarantaine de distillateurs clandestins produisent leur pastis. Une taxe est alors prélevée par leur syndicat pour financer d'éventuels procès. L'État soucieux de trouver de nouvelles recettes fiscales abroge la prohibition en 1949. En 1951, une loi interdit la publicité des produits anisés par affiche et par presse, Pernod relance sa boisson sous l'appellation de « Pastis 51 » et envoie alors ses commerciaux (appelés « structure de propagande » à l'époque) qui contournent cette interdiction en développant des produits dérivés (pot à eau, cendrier, bob).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pastis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pastis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Consommation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se boit traditionnellement en apéritif, à compléter soi-même avec de l'eau fraîche et des glaçons selon son goût (généralement de cinq à sept volumes d'eau pour un volume de pastis). En France, la dose usuelle dans les cafés et brasseries est de 2 cl de pastis. Lorsque l'on fait le mélange en versant l'eau, on passe alors d'une couleur ambrée assez transparente à un jaune trouble un peu laiteux. Ce trouble est dû à une microémulsion de l'anéthol peu soluble dans l'eau  par l'effet Ouzo ; si l'on attend quelques heures, le trouble disparaît. Ce phénomène, désigné sous le terme de « louchissement » (on dit que le pastis « louchit »), apparaît aussi lors de la réfrigération du pastis pur (on dit alors que le pastis « paillette »).
+En 2005, la consommation annuelle de boissons anisées en France est d'environ 135 millions de litres.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Pastis</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pastis</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Commercialisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Jusqu'à leur fusion en 1975, les sociétés Pernod et Ricard se livrent une concurrence rude sur le marché des boissons anisées qui atteint son apogée dans les années 1960. Le groupe Pernod Ricard domine aujourd'hui le marché mondial du pastis avec les marques Ricard et 51 (qui fut d'abord commercialisé en 1951 sous la marque Pernod 51, puis Pastis 51 de 1954 à 1999).
 D'autres marques de pastis se partagent le reste du marché, notamment les Marseillais Duval et Casanis (tous deux la propriété du groupe Boisset et produits dans la même distillerie) et Berger (deux pastis, un blanc, Berger blanc et un jaune, Berger pastis de la société Gemaco de la maison Marie Brizard, détenue par le groupe Belvédère).
 Depuis les années 1990, les marques dites « économiques » se sont approprié près de 40 % du marché français, parmi lesquelles Cigalis, la marque des hypermarchés Cora, ou encore la marque du maxidiscompteur Leader Price.
-Des distillateurs locaux sont répartis dans l'arrière pays provençal ou méditerranéen. La société Cristal Limiñana, restée à 100 % familiale depuis 1884, fabrique dans son usine située à Marseille intra-muros le pastis Un Marseillais. La distillerie Janot, à Aubagne, produit différents pastis, dont la distribution est centrée en région PACA. Les Distilleries et Domaines de Provence avec leur Pastis Henri Bardouin, médaillé d'or du concours agricole de 2008, visent le marché haut de gamme des pastis plus complexes et raffinés[15]. L'artisanal Pastis des Homs produit à Nant (Aveyron) obtient deux fois la médaille d'or du concours général agricole[16].
+Des distillateurs locaux sont répartis dans l'arrière pays provençal ou méditerranéen. La société Cristal Limiñana, restée à 100 % familiale depuis 1884, fabrique dans son usine située à Marseille intra-muros le pastis Un Marseillais. La distillerie Janot, à Aubagne, produit différents pastis, dont la distribution est centrée en région PACA. Les Distilleries et Domaines de Provence avec leur Pastis Henri Bardouin, médaillé d'or du concours agricole de 2008, visent le marché haut de gamme des pastis plus complexes et raffinés. L'artisanal Pastis des Homs produit à Nant (Aveyron) obtient deux fois la médaille d'or du concours général agricole.
 En 2016, la distillerie Larusée à Fenin crée le premier pastis artisanal de Suisse et obtient deux médailles d'or au Paris International Trophy et au Palmarès National de l'AVGF (Académie des Vins et de la Gastronomie Française) en 2019.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Pastis</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Pastis</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Pastis</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pastis</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Dénominations régionales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Le pastis est aussi appelé un jaune ou un flai (et non fly) en français dans le sud de la France. Il peut également s'appeler fenouil, pommade, flan, voire plus récemment flambi si la proportion d'eau est faible. On peut entendre dire qu'un pastis est « gras » lorsque la proportion d'alcool est importante. S'il est vraiment très gras, on l'appelle « yaourt ». On dit aussi pastaga (dérivation argotique classique en français, cf. poulet &gt; poulaga = « policier ») dans le sud-est de la France, plus particulièrement du côté de Marseille. En langue provençale, on l'appelle surtout lou partaclet ou simplement l'aniseto.
 Il est courant de demander « un Ricard » du nom de la société historique ayant réussi à lier le nom de sa marque à cette boisson dans l'esprit collectif, ou « un 51 » ou « un Janot », à partir des noms des marques les plus répandues.
@@ -674,31 +776,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Pastis</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Pastis</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Pastis</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pastis</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Boissons apparentées</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Dans le bassin méditerranéen, les Balkans et le Caucase, on trouve d'autres boissons aromatisées à l'anis (en général de couleur blanche ou transparente et sans réglisse, ce qui les rend plus proches du berger blanc) :
 Algérie : l'anisette ;
@@ -711,31 +815,33 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Pastis</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Pastis</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Pastis</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pastis</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Quelques fabricants de pastis</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Pastis 12/12 de Saint-Tropez
@@ -753,37 +859,39 @@
 Distillerie des Alpes, Routin
 Larusée (en Suisse)
 Pastis de Nice
-Distillerie de Lyon[17]
+Distillerie de Lyon
 Distillerie Eyguebelle-Ælred
 </t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Pastis</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Pastis</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Pastis</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pastis</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Autres variétés de boissons anisées</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Pernod, boisson anisée (et non un pastis)
@@ -799,113 +907,224 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Pastis</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Pastis</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Pastis</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pastis</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Cocktails</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Sirops
-La mauresque (ou moresque), à base de pastis et de sirop d'orgeat, aussi appelée « EPO » eau, pastis, orgeat) par analogie avec l'érythropoïétine (EPO), parfois utilisée par des sportifs comme agent dopant.
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Sirops</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>La mauresque (ou moresque), à base de pastis et de sirop d'orgeat, aussi appelée « EPO » eau, pastis, orgeat) par analogie avec l'érythropoïétine (EPO), parfois utilisée par des sportifs comme agent dopant.
 Le pélican, à base de pastis et de sirop de pêche.
 Le prince des villes, à base de Berger Blanc exclusivement et de sirop de pêche, servi dans un verre à bière.
 Le perroquet, à base de pastis et de sirop de menthe.
 Le rourou, à base de pastis et de sirop de fraise.
 La tomate ou pomme d'amour (nom de la tomate en provençal), à base de pastis et de sirop de grenadine.
-Le caribou, à base de Sirop d'érable.
-Sodas
-La limonette, à base de pastis et de limonade. Un verre, deux pailles.
+Le caribou, à base de Sirop d'érable.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Pastis</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pastis</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Cocktails</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Sodas</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>La limonette, à base de pastis et de limonade. Un verre, deux pailles.
 Le mazout, à base de pastis et de Coca-Cola.
-Le pétrole, à base de pastis et de bière.
-Jus de fruits
-L'innocent, à base de pastis et de jus de goyave.
-Alcools
-Le sazerac, à base de pastis (parfois remplacé par de l'absinthe ou du Pernod) et de whisky de seigle ou de cognac.
+Le pétrole, à base de pastis et de bière.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Pastis</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pastis</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Cocktails</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Jus de fruits</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>L'innocent, à base de pastis et de jus de goyave.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Pastis</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pastis</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Cocktails</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Alcools</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Le sazerac, à base de pastis (parfois remplacé par de l'absinthe ou du Pernod) et de whisky de seigle ou de cognac.
 Le Stopstou, mélange de pastis et de picon.
 Herbsaint Legendre</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Pastis</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Pastis</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Pastis</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pastis</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Gastronomie</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le pastis (ou toute autre forme d'alcool, anisé ou non) peut entrer dans la confection d'un certain nombre de recette de cuisine, comme les gambas flambées au pastis, poulet au pastis, moules au pastis, salade niçoise au pastis, brochettes de thon au pastis, melon au pastis, daurade ou loup au pastis, terrine au pastis, coupe de fraises au pastis, rouget au pastis, moutarde au pastis, soupe d'agrumes au pastis, omelette au pastis, la crème glacée au pastis, etc.[18],[19],[20] La cuisson supprime généralement toute trace d’alcool dans le plat fini.
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le pastis (ou toute autre forme d'alcool, anisé ou non) peut entrer dans la confection d'un certain nombre de recette de cuisine, comme les gambas flambées au pastis, poulet au pastis, moules au pastis, salade niçoise au pastis, brochettes de thon au pastis, melon au pastis, daurade ou loup au pastis, terrine au pastis, coupe de fraises au pastis, rouget au pastis, moutarde au pastis, soupe d'agrumes au pastis, omelette au pastis, la crème glacée au pastis, etc. La cuisson supprime généralement toute trace d’alcool dans le plat fini.
 </t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Pastis</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Pastis</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Pastis</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pastis</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Au cinéma</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t>1931 : Marius, film tiré de la pièce de Marcel Pagnol.
 1963 : La Cuisine au beurre, film avec Fernandel et Bourvil.
-2006 : Camping, de Fabien Onteniente, lors d'un apéritif avec Claude Brasseur, Mathilde Seigner, Franck Dubosc, Mylène Demongeot, Frédérique Bel[21]</t>
+2006 : Camping, de Fabien Onteniente, lors d'un apéritif avec Claude Brasseur, Mathilde Seigner, Franck Dubosc, Mylène Demongeot, Frédérique Bel</t>
         </is>
       </c>
     </row>
